--- a/medicine/Psychotrope/Théanine/Théanine.xlsx
+++ b/medicine/Psychotrope/Théanine/Théanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9anine</t>
+          <t>Théanine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La théanine (ou L-théanine) est un acide aminé communément présent dans le thé (Camellia sinensis) dont l’activité sur le cerveau permet une réduction du stress mental et physique[2] et produit un effet relaxant[3]. La L-théanine ne doit pas être confondue avec la « théine », plus connue sous le nom de caféine et faisant partie avec la théophylline et la théobromine de la classe moléculaire des méthylxanthines.
+La théanine (ou L-théanine) est un acide aminé communément présent dans le thé (Camellia sinensis) dont l’activité sur le cerveau permet une réduction du stress mental et physique et produit un effet relaxant. La L-théanine ne doit pas être confondue avec la « théine », plus connue sous le nom de caféine et faisant partie avec la théophylline et la théobromine de la classe moléculaire des méthylxanthines.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9anine</t>
+          <t>Théanine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théanine est naturellement présente dans deux organismes vivants, le thé et le Bolet bai (Imleria badia, un champignon)[4].
-Dans les feuilles de thé, c'est l'acide aminé prédominant, il représente de 1 à 2 % du poids total des feuilles[5]. Elle est aussi présente dans le Guayusa (Ilex guayusa) à hauteur de 1,3 mg/g[6] 
-La théanine est connue comme le composé responsable du goût umami des thés verts japonais (du type matcha) et elle en réduit l'amertume[7]. Cependant, une étude a montré que la théanine est à la fois astringente, sucrée et umami et qu'elle contribue au goût umami en agissant comme un exhausteur de goût[8]. Cependant, il y en a autant dans les thés noirs que dans les thés verts[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théanine est naturellement présente dans deux organismes vivants, le thé et le Bolet bai (Imleria badia, un champignon).
+Dans les feuilles de thé, c'est l'acide aminé prédominant, il représente de 1 à 2 % du poids total des feuilles. Elle est aussi présente dans le Guayusa (Ilex guayusa) à hauteur de 1,3 mg/g 
+La théanine est connue comme le composé responsable du goût umami des thés verts japonais (du type matcha) et elle en réduit l'amertume. Cependant, une étude a montré que la théanine est à la fois astringente, sucrée et umami et qu'elle contribue au goût umami en agissant comme un exhausteur de goût. Cependant, il y en a autant dans les thés noirs que dans les thés verts.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9anine</t>
+          <t>Théanine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théanine est un acide aminé instable, elle a tendance à s'hydrolyser en milieu basique et à se racémiser en milieu aqueux[5].
-La D-théanine existe aussi à l'état naturel et représente de 0,5 à 3 % de la théanine totale dans le thé[5].
-Dans le thé, la théanine est biosynthétisée dans les racines de la plante à partir de l'acide glutamique et l'éthylamine. La biosynthèse est réalisée par une enzyme, la théanine synthétase (ou L-glutamique acide éthylamine ligase ou L-glutamate éthylamine ligase)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théanine est un acide aminé instable, elle a tendance à s'hydrolyser en milieu basique et à se racémiser en milieu aqueux.
+La D-théanine existe aussi à l'état naturel et représente de 0,5 à 3 % de la théanine totale dans le thé.
+Dans le thé, la théanine est biosynthétisée dans les racines de la plante à partir de l'acide glutamique et l'éthylamine. La biosynthèse est réalisée par une enzyme, la théanine synthétase (ou L-glutamique acide éthylamine ligase ou L-glutamate éthylamine ligase).
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9anine</t>
+          <t>Théanine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théanine est dérivée d'un autre acide aminé, la glutamine, ce qui favorise l’accès aux cellules du cerveau[9], où elle joue un rôle de psychotrope[10].
-L’activité de la théanine sur le cerveau a montré une réduction du stress mental et physique[2] et produit un effet relaxant[3].
-Une étude randomisée en double aveugle a montré que l'ajout de théanine à un traitement par antipsychotiques aide à soulager certains des symptômes de la schizophrénie et des troubles schizoaffectifs (symptômes positifs, anxiété, activation)[11].
-Le mécanisme d’action de la théanine semble provenir de sa capacité à favoriser la production d'acide gamma-aminobutyrique (GABA) et donc sa concentration et des études récentes semblent démontrer sa capacité à moduler les récepteurs glutamatergiques[12]. La théanine semble augmenter la concentration de sérotonine, de dopamine et a des affinités avec les récepteurs AMPA, Kainate et NMDA[13].
-L’injection de théanine chez des souris souffrant d'hypertension a montré une diminution significative du 5-hydroxyindole dans le cerveau[14].
-La théanine augmente la production du rythme alpha dans le cerveau[10]. Un essai croisé en double aveugle, randomisé et contrôlé par placebo a trouvé que l'hydrolysat triptyque d'alpha-S1-caséine et la L-théanine prolongeaient le temps de sommeil total de 45 minutes[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théanine est dérivée d'un autre acide aminé, la glutamine, ce qui favorise l’accès aux cellules du cerveau, où elle joue un rôle de psychotrope.
+L’activité de la théanine sur le cerveau a montré une réduction du stress mental et physique et produit un effet relaxant.
+Une étude randomisée en double aveugle a montré que l'ajout de théanine à un traitement par antipsychotiques aide à soulager certains des symptômes de la schizophrénie et des troubles schizoaffectifs (symptômes positifs, anxiété, activation).
+Le mécanisme d’action de la théanine semble provenir de sa capacité à favoriser la production d'acide gamma-aminobutyrique (GABA) et donc sa concentration et des études récentes semblent démontrer sa capacité à moduler les récepteurs glutamatergiques. La théanine semble augmenter la concentration de sérotonine, de dopamine et a des affinités avec les récepteurs AMPA, Kainate et NMDA.
+L’injection de théanine chez des souris souffrant d'hypertension a montré une diminution significative du 5-hydroxyindole dans le cerveau.
+La théanine augmente la production du rythme alpha dans le cerveau. Un essai croisé en double aveugle, randomisé et contrôlé par placebo a trouvé que l'hydrolysat triptyque d'alpha-S1-caséine et la L-théanine prolongeaient le temps de sommeil total de 45 minutes.
 </t>
         </is>
       </c>
